--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ccl2-Ccr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ccl2-Ccr2.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.81256866666667</v>
+        <v>9.380719000000001</v>
       </c>
       <c r="H2">
-        <v>35.437706</v>
+        <v>28.142157</v>
       </c>
       <c r="I2">
-        <v>0.01569049050213386</v>
+        <v>0.03679977590837273</v>
       </c>
       <c r="J2">
-        <v>0.01569049050213386</v>
+        <v>0.03679977590837273</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1067053333333333</v>
+        <v>0.177232</v>
       </c>
       <c r="N2">
-        <v>0.320116</v>
+        <v>0.5316959999999999</v>
       </c>
       <c r="O2">
-        <v>0.0004703131782773351</v>
+        <v>0.0005104719838156216</v>
       </c>
       <c r="P2">
-        <v>0.0004703131782773351</v>
+        <v>0.0005104719838156217</v>
       </c>
       <c r="Q2">
-        <v>1.260464077099555</v>
+        <v>1.662563589808</v>
       </c>
       <c r="R2">
-        <v>11.344176693896</v>
+        <v>14.963072308272</v>
       </c>
       <c r="S2">
-        <v>7.379444456788915E-06</v>
+        <v>1.878525461191735E-05</v>
       </c>
       <c r="T2">
-        <v>7.379444456788915E-06</v>
+        <v>1.878525461191735E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.81256866666667</v>
+        <v>9.380719000000001</v>
       </c>
       <c r="H3">
-        <v>35.437706</v>
+        <v>28.142157</v>
       </c>
       <c r="I3">
-        <v>0.01569049050213386</v>
+        <v>0.03679977590837273</v>
       </c>
       <c r="J3">
-        <v>0.01569049050213386</v>
+        <v>0.03679977590837273</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -626,22 +626,22 @@
         <v>0.243407</v>
       </c>
       <c r="O3">
-        <v>0.0003576126147551241</v>
+        <v>0.0002336907822601807</v>
       </c>
       <c r="P3">
-        <v>0.0003576126147551241</v>
+        <v>0.0002336907822601807</v>
       </c>
       <c r="Q3">
-        <v>0.9584206338157778</v>
+        <v>0.7611108898776668</v>
       </c>
       <c r="R3">
-        <v>8.625785704342</v>
+        <v>6.849998008899001</v>
       </c>
       <c r="S3">
-        <v>5.61111733525853E-06</v>
+        <v>8.599768419026976E-06</v>
       </c>
       <c r="T3">
-        <v>5.61111733525853E-06</v>
+        <v>8.599768419026976E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.81256866666667</v>
+        <v>9.380719000000001</v>
       </c>
       <c r="H4">
-        <v>35.437706</v>
+        <v>28.142157</v>
       </c>
       <c r="I4">
-        <v>0.01569049050213386</v>
+        <v>0.03679977590837273</v>
       </c>
       <c r="J4">
-        <v>0.01569049050213386</v>
+        <v>0.03679977590837273</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>57.87945166666666</v>
+        <v>274.5137023333334</v>
       </c>
       <c r="N4">
-        <v>173.638355</v>
+        <v>823.541107</v>
       </c>
       <c r="O4">
-        <v>0.2551087937213329</v>
+        <v>0.7906673411949746</v>
       </c>
       <c r="P4">
-        <v>0.2551087937213329</v>
+        <v>0.7906673411949746</v>
       </c>
       <c r="Q4">
-        <v>683.7049972015143</v>
+        <v>2575.135903238645</v>
       </c>
       <c r="R4">
-        <v>6153.344974813629</v>
+        <v>23176.2231291478</v>
       </c>
       <c r="S4">
-        <v>0.0040027821048954</v>
+        <v>0.02909638097404395</v>
       </c>
       <c r="T4">
-        <v>0.0040027821048954</v>
+        <v>0.02909638097404395</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.81256866666667</v>
+        <v>9.380719000000001</v>
       </c>
       <c r="H5">
-        <v>35.437706</v>
+        <v>28.142157</v>
       </c>
       <c r="I5">
-        <v>0.01569049050213386</v>
+        <v>0.03679977590837273</v>
       </c>
       <c r="J5">
-        <v>0.01569049050213386</v>
+        <v>0.03679977590837273</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.065871</v>
+        <v>0.042388</v>
       </c>
       <c r="N5">
-        <v>0.197613</v>
+        <v>0.127164</v>
       </c>
       <c r="O5">
-        <v>0.0002903322486189975</v>
+        <v>0.0001220879211991998</v>
       </c>
       <c r="P5">
-        <v>0.0002903322486189975</v>
+        <v>0.0001220879211991998</v>
       </c>
       <c r="Q5">
-        <v>0.778105710642</v>
+        <v>0.3976299169720001</v>
       </c>
       <c r="R5">
-        <v>7.002951395777999</v>
+        <v>3.578669252748</v>
       </c>
       <c r="S5">
-        <v>4.555455389419548E-06</v>
+        <v>4.49280814124962E-06</v>
       </c>
       <c r="T5">
-        <v>4.555455389419548E-06</v>
+        <v>4.49280814124962E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.81256866666667</v>
+        <v>9.380719000000001</v>
       </c>
       <c r="H6">
-        <v>35.437706</v>
+        <v>28.142157</v>
       </c>
       <c r="I6">
-        <v>0.01569049050213386</v>
+        <v>0.03679977590837273</v>
       </c>
       <c r="J6">
-        <v>0.01569049050213386</v>
+        <v>0.03679977590837273</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>168.748281</v>
+        <v>72.37795533333333</v>
       </c>
       <c r="N6">
-        <v>506.244843</v>
+        <v>217.133866</v>
       </c>
       <c r="O6">
-        <v>0.7437729482370157</v>
+        <v>0.2084664081177503</v>
       </c>
       <c r="P6">
-        <v>0.7437729482370157</v>
+        <v>0.2084664081177503</v>
       </c>
       <c r="Q6">
-        <v>1993.350656694462</v>
+        <v>678.9572607765514</v>
       </c>
       <c r="R6">
-        <v>17940.15591025016</v>
+        <v>6110.615346988962</v>
       </c>
       <c r="S6">
-        <v>0.01167016238005699</v>
+        <v>0.007671517103156586</v>
       </c>
       <c r="T6">
-        <v>0.01167016238005699</v>
+        <v>0.007671517103156586</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>271.318122</v>
       </c>
       <c r="I7">
-        <v>0.1201295144865696</v>
+        <v>0.3547860986448385</v>
       </c>
       <c r="J7">
-        <v>0.1201295144865697</v>
+        <v>0.3547860986448385</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.1067053333333333</v>
+        <v>0.177232</v>
       </c>
       <c r="N7">
-        <v>0.320116</v>
+        <v>0.5316959999999999</v>
       </c>
       <c r="O7">
-        <v>0.0004703131782773351</v>
+        <v>0.0005104719838156216</v>
       </c>
       <c r="P7">
-        <v>0.0004703131782773351</v>
+        <v>0.0005104719838156217</v>
       </c>
       <c r="Q7">
-        <v>9.650363549128</v>
+        <v>16.028751132768</v>
       </c>
       <c r="R7">
-        <v>86.85327194215201</v>
+        <v>144.258760194912</v>
       </c>
       <c r="S7">
-        <v>5.649849376309173E-05</v>
+        <v>0.0001811083636054355</v>
       </c>
       <c r="T7">
-        <v>5.649849376309174E-05</v>
+        <v>0.0001811083636054356</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>271.318122</v>
       </c>
       <c r="I8">
-        <v>0.1201295144865696</v>
+        <v>0.3547860986448385</v>
       </c>
       <c r="J8">
-        <v>0.1201295144865697</v>
+        <v>0.3547860986448385</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -936,10 +936,10 @@
         <v>0.243407</v>
       </c>
       <c r="O8">
-        <v>0.0003576126147551241</v>
+        <v>0.0002336907822601807</v>
       </c>
       <c r="P8">
-        <v>0.0003576126147551241</v>
+        <v>0.0002336907822601807</v>
       </c>
       <c r="Q8">
         <v>7.337858902406001</v>
@@ -948,10 +948,10 @@
         <v>66.04073012165401</v>
       </c>
       <c r="S8">
-        <v>4.295982978480573E-05</v>
+        <v>8.291024092734996E-05</v>
       </c>
       <c r="T8">
-        <v>4.295982978480573E-05</v>
+        <v>8.291024092734996E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>271.318122</v>
       </c>
       <c r="I9">
-        <v>0.1201295144865696</v>
+        <v>0.3547860986448385</v>
       </c>
       <c r="J9">
-        <v>0.1201295144865697</v>
+        <v>0.3547860986448385</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>57.87945166666666</v>
+        <v>274.5137023333334</v>
       </c>
       <c r="N9">
-        <v>173.638355</v>
+        <v>823.541107</v>
       </c>
       <c r="O9">
-        <v>0.2551087937213329</v>
+        <v>0.7906673411949746</v>
       </c>
       <c r="P9">
-        <v>0.2551087937213329</v>
+        <v>0.7906673411949746</v>
       </c>
       <c r="Q9">
-        <v>5234.581376196589</v>
+        <v>24826.84739344901</v>
       </c>
       <c r="R9">
-        <v>47111.23238576931</v>
+        <v>223441.6265410411</v>
       </c>
       <c r="S9">
-        <v>0.03064609553099816</v>
+        <v>0.2805177813084525</v>
       </c>
       <c r="T9">
-        <v>0.03064609553099817</v>
+        <v>0.2805177813084525</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>271.318122</v>
       </c>
       <c r="I10">
-        <v>0.1201295144865696</v>
+        <v>0.3547860986448385</v>
       </c>
       <c r="J10">
-        <v>0.1201295144865697</v>
+        <v>0.3547860986448385</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.065871</v>
+        <v>0.042388</v>
       </c>
       <c r="N10">
-        <v>0.197613</v>
+        <v>0.127164</v>
       </c>
       <c r="O10">
-        <v>0.0002903322486189975</v>
+        <v>0.0001220879211991998</v>
       </c>
       <c r="P10">
-        <v>0.0002903322486189975</v>
+        <v>0.0001220879211991998</v>
       </c>
       <c r="Q10">
-        <v>5.957332004754</v>
+        <v>3.833544185112</v>
       </c>
       <c r="R10">
-        <v>53.615988042786</v>
+        <v>34.501897666008</v>
       </c>
       <c r="S10">
-        <v>3.487747206639421E-05</v>
+        <v>4.331509725392256E-05</v>
       </c>
       <c r="T10">
-        <v>3.487747206639421E-05</v>
+        <v>4.331509725392256E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>271.318122</v>
       </c>
       <c r="I11">
-        <v>0.1201295144865696</v>
+        <v>0.3547860986448385</v>
       </c>
       <c r="J11">
-        <v>0.1201295144865697</v>
+        <v>0.3547860986448385</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>168.748281</v>
+        <v>72.37795533333333</v>
       </c>
       <c r="N11">
-        <v>506.244843</v>
+        <v>217.133866</v>
       </c>
       <c r="O11">
-        <v>0.7437729482370157</v>
+        <v>0.2084664081177503</v>
       </c>
       <c r="P11">
-        <v>0.7437729482370157</v>
+        <v>0.2084664081177503</v>
       </c>
       <c r="Q11">
-        <v>15261.48889721609</v>
+        <v>6545.816971746628</v>
       </c>
       <c r="R11">
-        <v>137353.4000749449</v>
+        <v>58912.35274571966</v>
       </c>
       <c r="S11">
-        <v>0.08934908315995718</v>
+        <v>0.07396098363459933</v>
       </c>
       <c r="T11">
-        <v>0.0893490831599572</v>
+        <v>0.07396098363459933</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>381.646276</v>
+        <v>100.179423</v>
       </c>
       <c r="H12">
-        <v>1144.938828</v>
+        <v>300.538269</v>
       </c>
       <c r="I12">
-        <v>0.5069360811971936</v>
+        <v>0.3929954960840508</v>
       </c>
       <c r="J12">
-        <v>0.5069360811971936</v>
+        <v>0.3929954960840508</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.1067053333333333</v>
+        <v>0.177232</v>
       </c>
       <c r="N12">
-        <v>0.320116</v>
+        <v>0.5316959999999999</v>
       </c>
       <c r="O12">
-        <v>0.0004703131782773351</v>
+        <v>0.0005104719838156216</v>
       </c>
       <c r="P12">
-        <v>0.0004703131782773351</v>
+        <v>0.0005104719838156217</v>
       </c>
       <c r="Q12">
-        <v>40.72369309600533</v>
+        <v>17.754999497136</v>
       </c>
       <c r="R12">
-        <v>366.5132378640481</v>
+        <v>159.794995474224</v>
       </c>
       <c r="S12">
-        <v>0.0002384187195313093</v>
+        <v>0.0002006131905166297</v>
       </c>
       <c r="T12">
-        <v>0.0002384187195313093</v>
+        <v>0.0002006131905166298</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>381.646276</v>
+        <v>100.179423</v>
       </c>
       <c r="H13">
-        <v>1144.938828</v>
+        <v>300.538269</v>
       </c>
       <c r="I13">
-        <v>0.5069360811971936</v>
+        <v>0.3929954960840508</v>
       </c>
       <c r="J13">
-        <v>0.5069360811971936</v>
+        <v>0.3929954960840508</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1246,22 +1246,22 @@
         <v>0.243407</v>
       </c>
       <c r="O13">
-        <v>0.0003576126147551241</v>
+        <v>0.0002336907822601807</v>
       </c>
       <c r="P13">
-        <v>0.0003576126147551241</v>
+        <v>0.0002336907822601807</v>
       </c>
       <c r="Q13">
-        <v>30.96512503411067</v>
+        <v>8.128124271387001</v>
       </c>
       <c r="R13">
-        <v>278.686125306996</v>
+        <v>73.15311844248301</v>
       </c>
       <c r="S13">
-        <v>0.0001812867375106443</v>
+        <v>9.183942490460961E-05</v>
       </c>
       <c r="T13">
-        <v>0.0001812867375106443</v>
+        <v>9.183942490460961E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>381.646276</v>
+        <v>100.179423</v>
       </c>
       <c r="H14">
-        <v>1144.938828</v>
+        <v>300.538269</v>
       </c>
       <c r="I14">
-        <v>0.5069360811971936</v>
+        <v>0.3929954960840508</v>
       </c>
       <c r="J14">
-        <v>0.5069360811971936</v>
+        <v>0.3929954960840508</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>57.87945166666666</v>
+        <v>274.5137023333334</v>
       </c>
       <c r="N14">
-        <v>173.638355</v>
+        <v>823.541107</v>
       </c>
       <c r="O14">
-        <v>0.2551087937213329</v>
+        <v>0.7906673411949746</v>
       </c>
       <c r="P14">
-        <v>0.2551087937213329</v>
+        <v>0.7906673411949746</v>
       </c>
       <c r="Q14">
-        <v>22089.47718550533</v>
+        <v>27500.62430534709</v>
       </c>
       <c r="R14">
-        <v>198805.2946695479</v>
+        <v>247505.6187481238</v>
       </c>
       <c r="S14">
-        <v>0.1293238521680357</v>
+        <v>0.3107287039903765</v>
       </c>
       <c r="T14">
-        <v>0.1293238521680357</v>
+        <v>0.3107287039903765</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>381.646276</v>
+        <v>100.179423</v>
       </c>
       <c r="H15">
-        <v>1144.938828</v>
+        <v>300.538269</v>
       </c>
       <c r="I15">
-        <v>0.5069360811971936</v>
+        <v>0.3929954960840508</v>
       </c>
       <c r="J15">
-        <v>0.5069360811971936</v>
+        <v>0.3929954960840508</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>0.065871</v>
+        <v>0.042388</v>
       </c>
       <c r="N15">
-        <v>0.197613</v>
+        <v>0.127164</v>
       </c>
       <c r="O15">
-        <v>0.0002903322486189975</v>
+        <v>0.0001220879211991998</v>
       </c>
       <c r="P15">
-        <v>0.0002903322486189975</v>
+        <v>0.0001220879211991998</v>
       </c>
       <c r="Q15">
-        <v>25.139421846396</v>
+        <v>4.246405382124</v>
       </c>
       <c r="R15">
-        <v>226.254796617564</v>
+        <v>38.217648439116</v>
       </c>
       <c r="S15">
-        <v>0.0001471798923600839</v>
+        <v>4.798000315755001E-05</v>
       </c>
       <c r="T15">
-        <v>0.0001471798923600839</v>
+        <v>4.798000315755001E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>381.646276</v>
+        <v>100.179423</v>
       </c>
       <c r="H16">
-        <v>1144.938828</v>
+        <v>300.538269</v>
       </c>
       <c r="I16">
-        <v>0.5069360811971936</v>
+        <v>0.3929954960840508</v>
       </c>
       <c r="J16">
-        <v>0.5069360811971936</v>
+        <v>0.3929954960840508</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>168.748281</v>
+        <v>72.37795533333333</v>
       </c>
       <c r="N16">
-        <v>506.244843</v>
+        <v>217.133866</v>
       </c>
       <c r="O16">
-        <v>0.7437729482370157</v>
+        <v>0.2084664081177503</v>
       </c>
       <c r="P16">
-        <v>0.7437729482370157</v>
+        <v>0.2084664081177503</v>
       </c>
       <c r="Q16">
-        <v>64402.15302505155</v>
+        <v>7250.781803213106</v>
       </c>
       <c r="R16">
-        <v>579619.3772254641</v>
+        <v>65257.03622891796</v>
       </c>
       <c r="S16">
-        <v>0.3770453436797558</v>
+        <v>0.08192635947509548</v>
       </c>
       <c r="T16">
-        <v>0.3770453436797558</v>
+        <v>0.08192635947509548</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.809069</v>
+        <v>1.427630666666667</v>
       </c>
       <c r="H17">
-        <v>8.427206999999999</v>
+        <v>4.282892</v>
       </c>
       <c r="I17">
-        <v>0.003731252000144026</v>
+        <v>0.005600475679236752</v>
       </c>
       <c r="J17">
-        <v>0.003731252000144027</v>
+        <v>0.005600475679236752</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.1067053333333333</v>
+        <v>0.177232</v>
       </c>
       <c r="N17">
-        <v>0.320116</v>
+        <v>0.5316959999999999</v>
       </c>
       <c r="O17">
-        <v>0.0004703131782773351</v>
+        <v>0.0005104719838156216</v>
       </c>
       <c r="P17">
-        <v>0.0004703131782773351</v>
+        <v>0.0005104719838156217</v>
       </c>
       <c r="Q17">
-        <v>0.2997426440013333</v>
+        <v>0.2530218383146666</v>
       </c>
       <c r="R17">
-        <v>2.697683796012</v>
+        <v>2.277196544832</v>
       </c>
       <c r="S17">
-        <v>1.754856987141401E-06</v>
+        <v>2.858885930291125E-06</v>
       </c>
       <c r="T17">
-        <v>1.754856987141401E-06</v>
+        <v>2.858885930291126E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.809069</v>
+        <v>1.427630666666667</v>
       </c>
       <c r="H18">
-        <v>8.427206999999999</v>
+        <v>4.282892</v>
       </c>
       <c r="I18">
-        <v>0.003731252000144026</v>
+        <v>0.005600475679236752</v>
       </c>
       <c r="J18">
-        <v>0.003731252000144027</v>
+        <v>0.005600475679236752</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1556,22 +1556,22 @@
         <v>0.243407</v>
       </c>
       <c r="O18">
-        <v>0.0003576126147551241</v>
+        <v>0.0002336907822601807</v>
       </c>
       <c r="P18">
-        <v>0.0003576126147551241</v>
+        <v>0.0002336907822601807</v>
       </c>
       <c r="Q18">
-        <v>0.2279156860276667</v>
+        <v>0.1158317658937778</v>
       </c>
       <c r="R18">
-        <v>2.051241174249</v>
+        <v>1.042485893044</v>
       </c>
       <c r="S18">
-        <v>1.334342784081792E-06</v>
+        <v>1.308779542509953E-06</v>
       </c>
       <c r="T18">
-        <v>1.334342784081792E-06</v>
+        <v>1.308779542509953E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.809069</v>
+        <v>1.427630666666667</v>
       </c>
       <c r="H19">
-        <v>8.427206999999999</v>
+        <v>4.282892</v>
       </c>
       <c r="I19">
-        <v>0.003731252000144026</v>
+        <v>0.005600475679236752</v>
       </c>
       <c r="J19">
-        <v>0.003731252000144027</v>
+        <v>0.005600475679236752</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>57.87945166666666</v>
+        <v>274.5137023333334</v>
       </c>
       <c r="N19">
-        <v>173.638355</v>
+        <v>823.541107</v>
       </c>
       <c r="O19">
-        <v>0.2551087937213329</v>
+        <v>0.7906673411949746</v>
       </c>
       <c r="P19">
-        <v>0.2551087937213329</v>
+        <v>0.7906673411949746</v>
       </c>
       <c r="Q19">
-        <v>162.5873734138316</v>
+        <v>391.9041798712716</v>
       </c>
       <c r="R19">
-        <v>1463.286360724485</v>
+        <v>3527.137618841444</v>
       </c>
       <c r="S19">
-        <v>0.0009518751968270532</v>
+        <v>0.004428113214729242</v>
       </c>
       <c r="T19">
-        <v>0.0009518751968270533</v>
+        <v>0.004428113214729242</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.809069</v>
+        <v>1.427630666666667</v>
       </c>
       <c r="H20">
-        <v>8.427206999999999</v>
+        <v>4.282892</v>
       </c>
       <c r="I20">
-        <v>0.003731252000144026</v>
+        <v>0.005600475679236752</v>
       </c>
       <c r="J20">
-        <v>0.003731252000144027</v>
+        <v>0.005600475679236752</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M20">
-        <v>0.065871</v>
+        <v>0.042388</v>
       </c>
       <c r="N20">
-        <v>0.197613</v>
+        <v>0.127164</v>
       </c>
       <c r="O20">
-        <v>0.0002903322486189975</v>
+        <v>0.0001220879211991998</v>
       </c>
       <c r="P20">
-        <v>0.0002903322486189975</v>
+        <v>0.0001220879211991998</v>
       </c>
       <c r="Q20">
-        <v>0.185036184099</v>
+        <v>0.06051440869866667</v>
       </c>
       <c r="R20">
-        <v>1.665325656891</v>
+        <v>0.544629678288</v>
       </c>
       <c r="S20">
-        <v>1.083302783365947E-06</v>
+        <v>6.837504334046913E-07</v>
       </c>
       <c r="T20">
-        <v>1.083302783365947E-06</v>
+        <v>6.837504334046913E-07</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.809069</v>
+        <v>1.427630666666667</v>
       </c>
       <c r="H21">
-        <v>8.427206999999999</v>
+        <v>4.282892</v>
       </c>
       <c r="I21">
-        <v>0.003731252000144026</v>
+        <v>0.005600475679236752</v>
       </c>
       <c r="J21">
-        <v>0.003731252000144027</v>
+        <v>0.005600475679236752</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>168.748281</v>
+        <v>72.37795533333333</v>
       </c>
       <c r="N21">
-        <v>506.244843</v>
+        <v>217.133866</v>
       </c>
       <c r="O21">
-        <v>0.7437729482370157</v>
+        <v>0.2084664081177503</v>
       </c>
       <c r="P21">
-        <v>0.7437729482370157</v>
+        <v>0.2084664081177503</v>
       </c>
       <c r="Q21">
-        <v>474.0255649603889</v>
+        <v>103.3289886244969</v>
       </c>
       <c r="R21">
-        <v>4266.230084643501</v>
+        <v>929.9608976204721</v>
       </c>
       <c r="S21">
-        <v>0.002775204300762384</v>
+        <v>0.001167511048601304</v>
       </c>
       <c r="T21">
-        <v>0.002775204300762384</v>
+        <v>0.001167511048601304</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>266.141622</v>
+        <v>53.48524799999999</v>
       </c>
       <c r="H22">
-        <v>798.4248660000001</v>
+        <v>160.455744</v>
       </c>
       <c r="I22">
-        <v>0.3535126618139589</v>
+        <v>0.2098181536835013</v>
       </c>
       <c r="J22">
-        <v>0.3535126618139589</v>
+        <v>0.2098181536835013</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.1067053333333333</v>
+        <v>0.177232</v>
       </c>
       <c r="N22">
-        <v>0.320116</v>
+        <v>0.5316959999999999</v>
       </c>
       <c r="O22">
-        <v>0.0004703131782773351</v>
+        <v>0.0005104719838156216</v>
       </c>
       <c r="P22">
-        <v>0.0004703131782773351</v>
+        <v>0.0005104719838156217</v>
       </c>
       <c r="Q22">
-        <v>28.398730489384</v>
+        <v>9.479297473535997</v>
       </c>
       <c r="R22">
-        <v>255.588574404456</v>
+        <v>85.31367726182398</v>
       </c>
       <c r="S22">
-        <v>0.0001662616635390037</v>
+        <v>0.0001071062891513479</v>
       </c>
       <c r="T22">
-        <v>0.0001662616635390037</v>
+        <v>0.0001071062891513479</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>266.141622</v>
+        <v>53.48524799999999</v>
       </c>
       <c r="H23">
-        <v>798.4248660000001</v>
+        <v>160.455744</v>
       </c>
       <c r="I23">
-        <v>0.3535126618139589</v>
+        <v>0.2098181536835013</v>
       </c>
       <c r="J23">
-        <v>0.3535126618139589</v>
+        <v>0.2098181536835013</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1866,22 +1866,22 @@
         <v>0.243407</v>
       </c>
       <c r="O23">
-        <v>0.0003576126147551241</v>
+        <v>0.0002336907822601807</v>
       </c>
       <c r="P23">
-        <v>0.0003576126147551241</v>
+        <v>0.0002336907822601807</v>
       </c>
       <c r="Q23">
-        <v>21.59357792871801</v>
+        <v>4.339561253312</v>
       </c>
       <c r="R23">
-        <v>194.342201358462</v>
+        <v>39.056051279808</v>
       </c>
       <c r="S23">
-        <v>0.0001264205873403338</v>
+        <v>4.903256846668423E-05</v>
       </c>
       <c r="T23">
-        <v>0.0001264205873403338</v>
+        <v>4.903256846668423E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>266.141622</v>
+        <v>53.48524799999999</v>
       </c>
       <c r="H24">
-        <v>798.4248660000001</v>
+        <v>160.455744</v>
       </c>
       <c r="I24">
-        <v>0.3535126618139589</v>
+        <v>0.2098181536835013</v>
       </c>
       <c r="J24">
-        <v>0.3535126618139589</v>
+        <v>0.2098181536835013</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>57.87945166666666</v>
+        <v>274.5137023333334</v>
       </c>
       <c r="N24">
-        <v>173.638355</v>
+        <v>823.541107</v>
       </c>
       <c r="O24">
-        <v>0.2551087937213329</v>
+        <v>0.7906673411949746</v>
       </c>
       <c r="P24">
-        <v>0.2551087937213329</v>
+        <v>0.7906673411949746</v>
       </c>
       <c r="Q24">
-        <v>15404.13114703727</v>
+        <v>14682.43344869651</v>
       </c>
       <c r="R24">
-        <v>138637.1803233354</v>
+        <v>132141.9010382686</v>
       </c>
       <c r="S24">
-        <v>0.09018418872057656</v>
+        <v>0.1658963617073725</v>
       </c>
       <c r="T24">
-        <v>0.09018418872057654</v>
+        <v>0.1658963617073725</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>266.141622</v>
+        <v>53.48524799999999</v>
       </c>
       <c r="H25">
-        <v>798.4248660000001</v>
+        <v>160.455744</v>
       </c>
       <c r="I25">
-        <v>0.3535126618139589</v>
+        <v>0.2098181536835013</v>
       </c>
       <c r="J25">
-        <v>0.3535126618139589</v>
+        <v>0.2098181536835013</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M25">
-        <v>0.065871</v>
+        <v>0.042388</v>
       </c>
       <c r="N25">
-        <v>0.197613</v>
+        <v>0.127164</v>
       </c>
       <c r="O25">
-        <v>0.0002903322486189975</v>
+        <v>0.0001220879211991998</v>
       </c>
       <c r="P25">
-        <v>0.0002903322486189975</v>
+        <v>0.0001220879211991998</v>
       </c>
       <c r="Q25">
-        <v>17.531014782762</v>
+        <v>2.267132692224</v>
       </c>
       <c r="R25">
-        <v>157.779133044858</v>
+        <v>20.404194230016</v>
       </c>
       <c r="S25">
-        <v>0.0001026361260197339</v>
+        <v>2.561626221307289E-05</v>
       </c>
       <c r="T25">
-        <v>0.0001026361260197339</v>
+        <v>2.561626221307289E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>266.141622</v>
+        <v>53.48524799999999</v>
       </c>
       <c r="H26">
-        <v>798.4248660000001</v>
+        <v>160.455744</v>
       </c>
       <c r="I26">
-        <v>0.3535126618139589</v>
+        <v>0.2098181536835013</v>
       </c>
       <c r="J26">
-        <v>0.3535126618139589</v>
+        <v>0.2098181536835013</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>168.748281</v>
+        <v>72.37795533333333</v>
       </c>
       <c r="N26">
-        <v>506.244843</v>
+        <v>217.133866</v>
       </c>
       <c r="O26">
-        <v>0.7437729482370157</v>
+        <v>0.2084664081177503</v>
       </c>
       <c r="P26">
-        <v>0.7437729482370157</v>
+        <v>0.2084664081177503</v>
       </c>
       <c r="Q26">
-        <v>44910.94121505179</v>
+        <v>3871.152890736255</v>
       </c>
       <c r="R26">
-        <v>404198.4709354661</v>
+        <v>34840.3760166263</v>
       </c>
       <c r="S26">
-        <v>0.2629331547164833</v>
+        <v>0.04374003685629763</v>
       </c>
       <c r="T26">
-        <v>0.2629331547164833</v>
+        <v>0.04374003685629763</v>
       </c>
     </row>
   </sheetData>
